--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>left</t>
   </si>
@@ -40,6 +40,21 @@
   <si>
     <t>coverAngle</t>
   </si>
+  <si>
+    <t>(.dummy-book-front).getBoundingClientRect()</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>relative delta</t>
+  </si>
+  <si>
+    <t>absolute delta</t>
+  </si>
 </sst>
 </file>
 
@@ -48,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +73,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,6 +131,2168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Endpaper size changes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on steps</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0721776795313624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0776153291479154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0839541426922163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0914373547517304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1004065306790924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E434-439C-A612-4DE588CCAA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bottom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0190306278462096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0215315772023115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0245687317366776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0283096209589631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0329950794496991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E434-439C-A612-4DE588CCAA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0733390268563985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0787790393770256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0851207860096039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0926084249853392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1015833400367845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E434-439C-A612-4DE588CCAA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>width</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4281875367835865E-2"/>
+                  <c:y val="0.10050649673208945"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="uk-UA"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$4:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0710441152173016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0764770246430793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.082810528766899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0902869520524052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0992480286646198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E434-439C-A612-4DE588CCAA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="380958368"/>
+        <c:axId val="380959352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="380958368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380959352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="380959352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dynamic delta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380958368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Changes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of the top position absolute delta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.555549621582003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.478912353515597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4961090087890598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-38.6119384765625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-89.5040283203125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-150.49816894531199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-32.076637268066406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36.982803344726534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.108047485351563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50.89208984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-60.994140624999488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EEB-440A-AB18-192FC50059F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0340398435167526E-2"/>
+                  <c:y val="0.25437554680664914"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="uk-UA"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.555549621582003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.478912353515597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4961090087890598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-38.6119384765625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-89.5040283203125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-150.49816894531199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-32.076637268066406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36.982803344726534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.108047485351563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50.89208984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-60.994140624999488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EEB-440A-AB18-192FC50059F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508145112"/>
+        <c:axId val="508144128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508145112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508144128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508144128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508145112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Changes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of the left position relative delta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7476413513147569E-2"/>
+                  <c:y val="0.27273148148148146"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$4:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>478.739013671875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>516.45361328125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560.41455078125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>612.31365966796795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>674.51452636718705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0733390268563985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0787790393770256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0851207860096039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0926084249853392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1015833400367845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4A9-4F23-8C7C-A80A7708DDA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508145112"/>
+        <c:axId val="508144128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508145112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="675"/>
+          <c:min val="470"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508144128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508144128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508145112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>270781</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274864</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,159 +2558,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>446</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>73</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>459</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>193</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>180</v>
       </c>
+      <c r="P3">
+        <v>73.555549621582003</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3">
+        <v>902.98742675781205</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>717.16668701171795</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>446.02777099609301</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>456.95965576171801</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>477</v>
-      </c>
-      <c r="B3" s="1">
-        <f>A3/A2</f>
-        <v>1.0695067264573992</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3/C2</f>
-        <v>0.56164383561643838</v>
-      </c>
-      <c r="E3">
-        <v>418</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3/E2</f>
-        <v>0.91067538126361658</v>
-      </c>
-      <c r="H3">
-        <v>221</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I4" si="0">H3/H2</f>
-        <v>1.145077720207254</v>
-      </c>
-      <c r="K3">
-        <v>144</v>
-      </c>
-      <c r="L3">
-        <f>K3/K2</f>
-        <v>0.8</v>
-      </c>
-      <c r="M3">
-        <f>K3-K2</f>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>513</v>
       </c>
       <c r="B4" s="1">
         <f>A4/A3</f>
-        <v>1.0754716981132075</v>
+        <v>1.0695067264573992</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <f>C4/C3</f>
+        <v>0.56164383561643838</v>
+      </c>
+      <c r="E4">
+        <v>418</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/E3</f>
+        <v>0.91067538126361658</v>
+      </c>
+      <c r="H4">
+        <v>221</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I5" si="0">H4/H3</f>
+        <v>1.145077720207254</v>
+      </c>
+      <c r="K4">
+        <v>144</v>
+      </c>
+      <c r="L4">
+        <f>K4/K3</f>
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <f>K4-K3</f>
+        <v>-36</v>
+      </c>
+      <c r="P4">
+        <v>41.478912353515597</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>P4-P3</f>
+        <v>-32.076637268066406</v>
+      </c>
+      <c r="R4">
+        <v>968.16296386718705</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S8" si="1">R4/R3</f>
+        <v>1.0721776795313624</v>
+      </c>
+      <c r="T4">
+        <v>730.81481933593705</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U8" si="2">T4/T3</f>
+        <v>1.0190306278462096</v>
+      </c>
+      <c r="V4">
+        <v>478.739013671875</v>
+      </c>
+      <c r="W4" s="2">
+        <f>V4/V3</f>
+        <v>1.0733390268563985</v>
+      </c>
+      <c r="X4">
+        <v>489.42395019531199</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>X4/X3</f>
+        <v>1.0710441152173016</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>513</v>
+      </c>
+      <c r="B5" s="1">
+        <f>A5/A4</f>
+        <v>1.0754716981132075</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5/C4</f>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>252</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>1.1402714932126696</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>108</v>
-      </c>
-      <c r="L4">
-        <f>K4/K3</f>
-        <v>0.75</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M7" si="1">K4-K3</f>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5">
-        <v>72</v>
       </c>
       <c r="L5">
         <f>K5/K4</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="M5">
+        <f t="shared" ref="M5:M8" si="3">K5-K4</f>
+        <v>-36</v>
+      </c>
+      <c r="P5">
+        <v>4.4961090087890598</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:Q8" si="4">P5-P4</f>
+        <v>-36.982803344726534</v>
+      </c>
+      <c r="R5">
+        <v>1043.30725097656</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
-        <v>-36</v>
+        <v>1.0776153291479154</v>
+      </c>
+      <c r="T5">
+        <v>746.55041503906205</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0215315772023115</v>
+      </c>
+      <c r="V5">
+        <v>516.45361328125</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" ref="W5:W8" si="5">V5/V4</f>
+        <v>1.0787790393770256</v>
+      </c>
+      <c r="X5">
+        <v>526.85363769531205</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" ref="Y5:Y8" si="6">X5/X4</f>
+        <v>1.0764770246430793</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K6">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <f>K6/K5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+      <c r="P6">
+        <v>-38.6119384765625</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="4"/>
+        <v>-43.108047485351563</v>
+      </c>
+      <c r="R6">
+        <v>1130.89721679687</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0839541426922163</v>
+      </c>
+      <c r="T6">
+        <v>764.89221191406205</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0245687317366776</v>
+      </c>
+      <c r="V6">
+        <v>560.41455078125</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0851207860096039</v>
+      </c>
+      <c r="X6">
+        <v>570.482666015625</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="6"/>
+        <v>1.082810528766899</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <f>K7/K6</f>
         <v>0.5</v>
       </c>
-      <c r="M6">
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+      <c r="P7">
+        <v>-89.5040283203125</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="4"/>
+        <v>-50.89208984375</v>
+      </c>
+      <c r="R7">
+        <v>1234.30346679687</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="1"/>
+        <v>1.0914373547517304</v>
+      </c>
+      <c r="T7">
+        <v>786.54602050781205</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0283096209589631</v>
+      </c>
+      <c r="V7">
+        <v>612.31365966796795</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0926084249853392</v>
+      </c>
+      <c r="X7">
+        <v>621.98980712890602</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0902869520524052</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>-36</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="P8">
+        <v>-150.49816894531199</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="4"/>
+        <v>-60.994140624999488</v>
+      </c>
+      <c r="R8">
+        <v>1358.23559570312</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="1"/>
-        <v>-36</v>
+        <v>1.1004065306790924</v>
+      </c>
+      <c r="T8">
+        <v>812.49816894531205</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0329950794496991</v>
+      </c>
+      <c r="V8">
+        <v>674.51452636718705</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1015833400367845</v>
+      </c>
+      <c r="X8">
+        <v>683.72106933593705</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0992480286646198</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1414,14 +1414,15 @@
             </c:strRef>
           </c:tx>
           <c:trendline>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7476413513147569E-2"/>
-                  <c:y val="0.27273148148148146"/>
+                  <c:x val="-3.8316368847663082E-2"/>
+                  <c:y val="0.46717592592592594"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1429,24 +1430,24 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$V$4:$V$8</c:f>
+              <c:f>Sheet1!$V$3:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>446.02777099609301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>478.739013671875</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>516.45361328125</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>560.41455078125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>612.31365966796795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>674.51452636718705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,8 +1498,8 @@
         <c:axId val="508145112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="675"/>
-          <c:min val="470"/>
+          <c:max val="620"/>
+          <c:min val="445"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2558,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,6 +2928,10 @@
         <f t="shared" si="3"/>
         <v>-36</v>
       </c>
+      <c r="O8">
+        <f>P8-P3</f>
+        <v>-224.05371856689399</v>
+      </c>
       <c r="P8">
         <v>-150.49816894531199</v>
       </c>
@@ -2964,6 +2969,12 @@
       </c>
       <c r="AA8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>O8/P3</f>
+        <v>-3.0460477791216745</v>
       </c>
     </row>
   </sheetData>
